--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,19 @@
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12:05-12:45</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,19 @@
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9:00-11:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,32 @@
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9:30-11:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9:00-10:30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,19 @@
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9:15-10:20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,19 @@
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8:15-10:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,32 @@
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8:50-10:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9:30-10:30</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,19 @@
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9:00-10:35</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,45 @@
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8:15-10:30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9:40-10:40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9:55-11:25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,19 @@
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9:30-10:25</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,71 @@
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8:45-11:05</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9:25-10:35</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14:15-16:10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8:40-10:45</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>8:55-10:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,75 @@
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8:20-11:05</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9:50-10:35</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>王道数据结构</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10:35-11:25</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17:40-19:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,6 +779,84 @@
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8:30-10:20</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>19:00-20:25</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>19:10-20:25</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>18:15-19:55</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17:45-19:20</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>18:20-19:30</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>王道数据结构</t>
+          <t>王道DS</t>
         </is>
       </c>
     </row>
@@ -856,6 +856,49 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10:00-11:15</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17:45-19:45</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>王道OS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>18:10-19:55</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,6 +900,192 @@
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>8:45-10:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>18:30-19:10</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18:20-19:30</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9:35-11:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9:45-11:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>8:55-10:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9:00-10:05</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>18:25-19:35</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>9:00-10:25</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>9:10-10:40</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>9:45-10:00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16:10-17:30</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>8:45-10:35</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>王道CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>8:35-9:55</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,6 +1086,218 @@
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>8:35-10:05</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>9:30-10:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20:35-21:30</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>10:40-11:50</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>8:55-10:00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>8:20-10:55</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>9:20-11:20</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>18:15-18:50</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>8:30-10:45</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>8:35-9:50</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>14:35-16:40</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>8:30-11:30</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>王道CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>8:30-9:15</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>8:20-10:30</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>8:30-10:10</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>8:30-10:10</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1298,6 +1298,97 @@
       </c>
       <c r="C65" t="inlineStr"/>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>8:35-10:10</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>9:20-9:40</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>8:30-10:25</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>8:30-10:15</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>8:30-10:35</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>8:30-10:50</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>8:30-9:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,6 +1389,400 @@
       </c>
       <c r="C72" t="inlineStr"/>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>18:20-18:45</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>9:30-11:30</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>8:30-9:10</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>8:30-9:30</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>9:00-10:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>8:30-12:10, 20:55-21:45</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>8:15-10:20, 20:10-21:50</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>10:15-11:50, 17:00-18:15, 21:10-21:55</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>10:15-11:50</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>21:00-21:30</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>20:25-21:50</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>8:25-10:00, 19:30-21:35</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>16:35-17:35, 21:15-21:35</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>15:20-17:45</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>20:50-21:30</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>7:55-8:20, 14:30-17:20</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>14:15-17:25</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>9:45-11:55, 14:45-15:15</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>竟成DS</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>14:25-16:10</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>14:25-16:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>15:15-17:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>8:55-12:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>14:30-17:15</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>14:10-17:15</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>8:15-8:30, 14:35-17:30</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>14:15-16:50</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>15:20-17:05</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>15:25-17:20</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>15:30-17:05</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>8:40-11:30</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-cs2025.xlsx
+++ b/data/xlsx/学习时长-cs2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1783,6 +1783,304 @@
       </c>
       <c r="C102" t="inlineStr"/>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>15:40-17:20</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>14:45-16:40</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>15:00-17:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>15:20-17:25</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>15:40-17:30</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>9:10-11:30, 14:20-16:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>竟成CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>14:00-17:20</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>10:20-12:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>14:15-17:20</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>14:15-17:40</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>11:10-11:40</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>14:30-16:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>14:10-17:10</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>14:15-17:10</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>14:10-17:30</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>20:25-21:25</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>14:25-17:30</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>竟成OS</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>14:20-15:20</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>14:25-15:10</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>14:40-16:10</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>14:15-14:35</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>9:25-9:45</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>竟成CN未完成</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
